--- a/Waxing_Ver_02_Documents/03_Specification/01_Basic Design Document/Project_Flow.xlsx
+++ b/Waxing_Ver_02_Documents/03_Specification/01_Basic Design Document/Project_Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14955" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14955" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -638,6 +638,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,66 +715,6 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6413,7 +6413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6427,7 +6427,7 @@
   </sheetPr>
   <dimension ref="B1:AV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7092,52 +7092,52 @@
       <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>Index!$C$10</f>
         <v>Header</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="68" t="str">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88" t="str">
         <f>Index!$AB$10</f>
         <v>Project Flow</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="70" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72">
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="92">
         <f>Index!$AK$18</f>
         <v>43246</v>
       </c>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="70" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="68" t="str">
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="88" t="str">
         <f>Index!$AQ$18</f>
         <v>Rick</v>
       </c>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
       <c r="AH2" s="37"/>
@@ -7148,36 +7148,36 @@
       <c r="AM2" s="38"/>
     </row>
     <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39"/>
       <c r="AL3" s="39"/>
@@ -7216,52 +7216,52 @@
     </row>
     <row r="5" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82" t="s">
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82" t="s">
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="83"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="82"/>
       <c r="AJ5" s="40"/>
       <c r="AK5" s="40"/>
       <c r="AL5" s="40"/>
@@ -7280,50 +7280,50 @@
     </row>
     <row r="6" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
-      <c r="B6" s="74">
+      <c r="B6" s="83">
         <v>1</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76">
+      <c r="C6" s="84"/>
+      <c r="D6" s="85">
         <v>43246</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77" t="s">
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77" t="s">
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="78"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="87"/>
       <c r="AJ6" s="40"/>
       <c r="AL6" s="39"/>
       <c r="AM6" s="39"/>
@@ -7340,42 +7340,42 @@
     </row>
     <row r="7" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
-      <c r="B7" s="84">
+      <c r="B7" s="68">
         <v>2</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="88"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="72"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7394,42 +7394,42 @@
     </row>
     <row r="8" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
-      <c r="B8" s="84">
+      <c r="B8" s="68">
         <v>3</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="88"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="72"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -7448,42 +7448,42 @@
     </row>
     <row r="9" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
-      <c r="B9" s="84">
+      <c r="B9" s="68">
         <v>4</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="88"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="72"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -7502,42 +7502,42 @@
     </row>
     <row r="10" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
-      <c r="B10" s="89">
+      <c r="B10" s="73">
         <v>5</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="41"/>
       <c r="AL10" s="41"/>
@@ -7948,42 +7948,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:AA7"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AA6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="P2:S3"/>
     <mergeCell ref="T2:Y3"/>
     <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AA6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:AA7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8003,7 +8003,7 @@
   </sheetPr>
   <dimension ref="B1:AN18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8017,52 +8017,52 @@
   <sheetData>
     <row r="1" spans="2:40" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="str">
+      <c r="B2" s="90" t="str">
         <f>Index!$C$10</f>
         <v>Header</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="68" t="str">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88" t="str">
         <f>Index!$AB$10</f>
         <v>Project Flow</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="70" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72">
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="92">
         <f>Index!$AK$18</f>
         <v>43246</v>
       </c>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="70" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="68" t="str">
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="88" t="str">
         <f>Index!$AQ$18</f>
         <v>Rick</v>
       </c>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
     </row>
     <row r="3" spans="2:40" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="94"/>
@@ -8135,21 +8135,21 @@
       <c r="AE4" s="51"/>
     </row>
     <row r="5" spans="2:40" s="11" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
